--- a/data/pca/factorExposure/factorExposure_2013-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007414101082835134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001813336640938918</v>
+      </c>
+      <c r="C2">
+        <v>-0.03147089818038876</v>
+      </c>
+      <c r="D2">
+        <v>0.007004810855769619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002470097337517936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006401044326273542</v>
+      </c>
+      <c r="C4">
+        <v>-0.08455896971389525</v>
+      </c>
+      <c r="D4">
+        <v>0.07968637872029333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000352975444088973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01427584872295354</v>
+      </c>
+      <c r="C6">
+        <v>-0.1130080128851866</v>
+      </c>
+      <c r="D6">
+        <v>0.03284842126992207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002088238613221066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005091364326851354</v>
+      </c>
+      <c r="C7">
+        <v>-0.05781618131552863</v>
+      </c>
+      <c r="D7">
+        <v>0.03205255273202363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007148431369273469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005799250439492613</v>
+      </c>
+      <c r="C8">
+        <v>-0.03823850096447311</v>
+      </c>
+      <c r="D8">
+        <v>0.04141093901752949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003203942932118947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00451091987740126</v>
+      </c>
+      <c r="C9">
+        <v>-0.07021467040203383</v>
+      </c>
+      <c r="D9">
+        <v>0.07193356694203555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002169422137553033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005456056746301271</v>
+      </c>
+      <c r="C10">
+        <v>-0.05871895779139139</v>
+      </c>
+      <c r="D10">
+        <v>-0.1951856183718097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002678383499834715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005805794627674942</v>
+      </c>
+      <c r="C11">
+        <v>-0.07967805650983602</v>
+      </c>
+      <c r="D11">
+        <v>0.06160435680154346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.00042320834467143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004132572046770645</v>
+      </c>
+      <c r="C12">
+        <v>-0.06389082659856937</v>
+      </c>
+      <c r="D12">
+        <v>0.04761952007385214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002053223538687924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008991997819022121</v>
+      </c>
+      <c r="C13">
+        <v>-0.06846692738386498</v>
+      </c>
+      <c r="D13">
+        <v>0.05679419488775288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.000937618962880947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001621518998171335</v>
+      </c>
+      <c r="C14">
+        <v>-0.04518966597076959</v>
+      </c>
+      <c r="D14">
+        <v>0.008891707549367869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006699814781443399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006072399157441557</v>
+      </c>
+      <c r="C15">
+        <v>-0.04183320114215625</v>
+      </c>
+      <c r="D15">
+        <v>0.0285662402040164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009152573703131014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005107125925316564</v>
+      </c>
+      <c r="C16">
+        <v>-0.0649844884580611</v>
+      </c>
+      <c r="D16">
+        <v>0.04873135374326168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001456993302052367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009013849225619111</v>
+      </c>
+      <c r="C20">
+        <v>-0.06561560748744648</v>
+      </c>
+      <c r="D20">
+        <v>0.04117766637087302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005718807884901534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100604675336825</v>
+      </c>
+      <c r="C21">
+        <v>-0.02143119112870536</v>
+      </c>
+      <c r="D21">
+        <v>0.03643034202460347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01673391852537607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006672945215548658</v>
+      </c>
+      <c r="C22">
+        <v>-0.0936459451976971</v>
+      </c>
+      <c r="D22">
+        <v>0.1135936566212084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01703524310246369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006489219350435708</v>
+      </c>
+      <c r="C23">
+        <v>-0.09446070425873811</v>
+      </c>
+      <c r="D23">
+        <v>0.1136277005252118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001360451020853883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.0055147773273609</v>
+      </c>
+      <c r="C24">
+        <v>-0.0759583849365438</v>
+      </c>
+      <c r="D24">
+        <v>0.06213500019216463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003881413074561825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00309481310894688</v>
+      </c>
+      <c r="C25">
+        <v>-0.07834581124473365</v>
+      </c>
+      <c r="D25">
+        <v>0.06745656568190803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00480626606039917</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003656322044133969</v>
+      </c>
+      <c r="C26">
+        <v>-0.04066881636569281</v>
+      </c>
+      <c r="D26">
+        <v>0.02179060562019208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005386706429850743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007321049993601858</v>
+      </c>
+      <c r="C28">
+        <v>-0.1086668692643402</v>
+      </c>
+      <c r="D28">
+        <v>-0.3169355795887817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001025857571769776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003255410162809088</v>
+      </c>
+      <c r="C29">
+        <v>-0.04946825508483559</v>
+      </c>
+      <c r="D29">
+        <v>0.005617611457505865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003453019575190875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00960494551605859</v>
+      </c>
+      <c r="C30">
+        <v>-0.1422927808211315</v>
+      </c>
+      <c r="D30">
+        <v>0.09671973729489368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001165357124794553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006301725236785362</v>
+      </c>
+      <c r="C31">
+        <v>-0.04430452845344453</v>
+      </c>
+      <c r="D31">
+        <v>0.03110207470111039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005931918096487578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004215712476295035</v>
+      </c>
+      <c r="C32">
+        <v>-0.04111222646057152</v>
+      </c>
+      <c r="D32">
+        <v>0.02031369052424662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002687558593582615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008482155549271012</v>
+      </c>
+      <c r="C33">
+        <v>-0.08555350608395068</v>
+      </c>
+      <c r="D33">
+        <v>0.06615641298595526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004337858028970284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004007703105665828</v>
+      </c>
+      <c r="C34">
+        <v>-0.05772598257419671</v>
+      </c>
+      <c r="D34">
+        <v>0.05344794657196036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001392026621085963</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005069377713501758</v>
+      </c>
+      <c r="C35">
+        <v>-0.04057171723361867</v>
+      </c>
+      <c r="D35">
+        <v>0.01587105437199841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003635942117961283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001087592855308715</v>
+      </c>
+      <c r="C36">
+        <v>-0.02473981191905599</v>
+      </c>
+      <c r="D36">
+        <v>0.02156162456560444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002338267058791989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009539981126961042</v>
+      </c>
+      <c r="C38">
+        <v>-0.03503152631299307</v>
+      </c>
+      <c r="D38">
+        <v>0.01515123930018178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01189997069001197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0004496262237277583</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155261871627961</v>
+      </c>
+      <c r="D39">
+        <v>0.07373523099629065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01002559149668352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00280282110573221</v>
+      </c>
+      <c r="C40">
+        <v>-0.09111659188412129</v>
+      </c>
+      <c r="D40">
+        <v>0.009424590600977978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001285897318992778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007254356419435387</v>
+      </c>
+      <c r="C41">
+        <v>-0.03780607632297122</v>
+      </c>
+      <c r="D41">
+        <v>0.03596621181235759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002853851864302115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004125153591912008</v>
+      </c>
+      <c r="C43">
+        <v>-0.05363190046603615</v>
+      </c>
+      <c r="D43">
+        <v>0.02494973781479529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004160687747046792</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003497144790406028</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091236698159795</v>
+      </c>
+      <c r="D44">
+        <v>0.06850954068045406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.000973895009887378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002216823963342267</v>
+      </c>
+      <c r="C46">
+        <v>-0.03280372896129268</v>
+      </c>
+      <c r="D46">
+        <v>0.03226378923363606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>7.768183737768952e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002751840662711258</v>
+      </c>
+      <c r="C47">
+        <v>-0.03727531336663177</v>
+      </c>
+      <c r="D47">
+        <v>0.0217831494776152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00365033196845982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006673668116495223</v>
+      </c>
+      <c r="C48">
+        <v>-0.03078004333282516</v>
+      </c>
+      <c r="D48">
+        <v>0.03096319797195649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01194642670888687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01549723097372106</v>
+      </c>
+      <c r="C49">
+        <v>-0.1835660129648769</v>
+      </c>
+      <c r="D49">
+        <v>0.01428706090638106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001616419448959495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003684942802689096</v>
+      </c>
+      <c r="C50">
+        <v>-0.04344288805361164</v>
+      </c>
+      <c r="D50">
+        <v>0.03500367630804697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007436551625771532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00448401443461981</v>
+      </c>
+      <c r="C51">
+        <v>-0.02639965812947028</v>
+      </c>
+      <c r="D51">
+        <v>0.01975183478705859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008507919198508218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02116048227849883</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696486079938925</v>
+      </c>
+      <c r="D53">
+        <v>0.02705917514510202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001213992431388978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00880150161623963</v>
+      </c>
+      <c r="C54">
+        <v>-0.05418823174079063</v>
+      </c>
+      <c r="D54">
+        <v>0.04412782109506173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003791815552563663</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009667923112536767</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082241854434159</v>
+      </c>
+      <c r="D55">
+        <v>0.03992392100785708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002756959232368179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02032963913246339</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739809912716773</v>
+      </c>
+      <c r="D56">
+        <v>0.02669823723019799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006999439481025497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01982090574091794</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120098061521065</v>
+      </c>
+      <c r="D58">
+        <v>0.04902199939456352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006749951996862355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009989363037222641</v>
+      </c>
+      <c r="C59">
+        <v>-0.1648682645164257</v>
+      </c>
+      <c r="D59">
+        <v>-0.3205002818091583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003849674030349229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02424833941039092</v>
+      </c>
+      <c r="C60">
+        <v>-0.2216789285597306</v>
+      </c>
+      <c r="D60">
+        <v>0.03633898994232754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01358162985153931</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001630006743039103</v>
+      </c>
+      <c r="C61">
+        <v>-0.09487001512402141</v>
+      </c>
+      <c r="D61">
+        <v>0.05672051766423231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637443702242492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.145013048910236</v>
+      </c>
+      <c r="C62">
+        <v>-0.09162221353206737</v>
+      </c>
+      <c r="D62">
+        <v>0.04447479445979476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007649976779505152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006347210436620197</v>
+      </c>
+      <c r="C63">
+        <v>-0.0547599319117732</v>
+      </c>
+      <c r="D63">
+        <v>0.0262331989855038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004618237614253585</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01544237479063241</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046833371793636</v>
+      </c>
+      <c r="D64">
+        <v>0.05973903723244853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002926967711891016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01811210414523355</v>
+      </c>
+      <c r="C65">
+        <v>-0.1234644051436979</v>
+      </c>
+      <c r="D65">
+        <v>0.01850263147799689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007735659308224247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01326335069823629</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596715031056324</v>
+      </c>
+      <c r="D66">
+        <v>0.1138224955380572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003607622555679622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01574235513326974</v>
+      </c>
+      <c r="C67">
+        <v>-0.06565198357994019</v>
+      </c>
+      <c r="D67">
+        <v>0.02744045561562547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00623677805030851</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007881421193442372</v>
+      </c>
+      <c r="C68">
+        <v>-0.08801992920296152</v>
+      </c>
+      <c r="D68">
+        <v>-0.2588638194668379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00223141454364307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006224959431627475</v>
+      </c>
+      <c r="C69">
+        <v>-0.04989311081278339</v>
+      </c>
+      <c r="D69">
+        <v>0.03983487830060937</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003116192610361179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001870290008776357</v>
+      </c>
+      <c r="C70">
+        <v>-0.002678540404999298</v>
+      </c>
+      <c r="D70">
+        <v>0.002772099541370815</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001768050037968248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006002316486955495</v>
+      </c>
+      <c r="C71">
+        <v>-0.09737975443621011</v>
+      </c>
+      <c r="D71">
+        <v>-0.3066780258110824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003858730763756122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01629807829350985</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529282467488815</v>
+      </c>
+      <c r="D72">
+        <v>0.02081584196106254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01150591352095725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03119292180527765</v>
+      </c>
+      <c r="C73">
+        <v>-0.2802454495194435</v>
+      </c>
+      <c r="D73">
+        <v>0.05620022426915508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004635974045500926</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002143621574221843</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048244814012278</v>
+      </c>
+      <c r="D74">
+        <v>0.03726712320644888</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002578005963945874</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.011097537405245</v>
+      </c>
+      <c r="C75">
+        <v>-0.1242116808292161</v>
+      </c>
+      <c r="D75">
+        <v>0.02401365710128866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00916367396062802</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02202933570733333</v>
+      </c>
+      <c r="C76">
+        <v>-0.1488708138081064</v>
+      </c>
+      <c r="D76">
+        <v>0.06015332283798169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001613047406551141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02375090421415764</v>
+      </c>
+      <c r="C77">
+        <v>-0.1236790062656275</v>
+      </c>
+      <c r="D77">
+        <v>0.08705625681517301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002128047973651306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01482319458509656</v>
+      </c>
+      <c r="C78">
+        <v>-0.09587852574183231</v>
+      </c>
+      <c r="D78">
+        <v>0.06951251957166035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02290047918181351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03795558866121915</v>
+      </c>
+      <c r="C79">
+        <v>-0.156245373878009</v>
+      </c>
+      <c r="D79">
+        <v>0.03417231495568426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006607300528233058</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01045884421769929</v>
+      </c>
+      <c r="C80">
+        <v>-0.03996249339476293</v>
+      </c>
+      <c r="D80">
+        <v>0.02856521687482864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001286802336001814</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01550373109362909</v>
+      </c>
+      <c r="C81">
+        <v>-0.1270029590916207</v>
+      </c>
+      <c r="D81">
+        <v>0.03963920927226057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006036458862002155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02004231089014718</v>
+      </c>
+      <c r="C82">
+        <v>-0.1411442473667329</v>
+      </c>
+      <c r="D82">
+        <v>0.03893408761507151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008488627837191596</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01009286757036512</v>
+      </c>
+      <c r="C83">
+        <v>-0.05626688671667561</v>
+      </c>
+      <c r="D83">
+        <v>0.0544622246645816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0129774019119961</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.011743246992346</v>
+      </c>
+      <c r="C84">
+        <v>-0.03694789604458745</v>
+      </c>
+      <c r="D84">
+        <v>-0.009341885298371327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01404490622167811</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02835422875336395</v>
+      </c>
+      <c r="C85">
+        <v>-0.1232617084716803</v>
+      </c>
+      <c r="D85">
+        <v>0.04476052632319785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001764132733211446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006034725948742908</v>
+      </c>
+      <c r="C86">
+        <v>-0.05045408342960268</v>
+      </c>
+      <c r="D86">
+        <v>0.02833034740949745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004411472435198305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01027157751558995</v>
+      </c>
+      <c r="C87">
+        <v>-0.1290734258345432</v>
+      </c>
+      <c r="D87">
+        <v>0.07413082298477663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.0117386339513825</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002824703140152626</v>
+      </c>
+      <c r="C88">
+        <v>-0.06546962285832414</v>
+      </c>
+      <c r="D88">
+        <v>0.01797046197671368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01375984653894426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001032083772900092</v>
+      </c>
+      <c r="C89">
+        <v>-0.1491282390878313</v>
+      </c>
+      <c r="D89">
+        <v>-0.3395359484337397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002108481462265343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007263849743661144</v>
+      </c>
+      <c r="C90">
+        <v>-0.1229089338899567</v>
+      </c>
+      <c r="D90">
+        <v>-0.3185498729706706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005951834717263557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01056823847851166</v>
+      </c>
+      <c r="C91">
+        <v>-0.1010397776284262</v>
+      </c>
+      <c r="D91">
+        <v>0.02054950973820548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00764722572728369</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.00116442313550542</v>
+      </c>
+      <c r="C92">
+        <v>-0.1365564929140509</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259182572451061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-5.75998192346579e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005082682018914061</v>
+      </c>
+      <c r="C93">
+        <v>-0.1064776354193224</v>
+      </c>
+      <c r="D93">
+        <v>-0.301941569797412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003366876210189804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02268002950474852</v>
+      </c>
+      <c r="C94">
+        <v>-0.1459418256068044</v>
+      </c>
+      <c r="D94">
+        <v>0.05557178800927094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004596025780376913</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01664366986187373</v>
+      </c>
+      <c r="C95">
+        <v>-0.1266281190676403</v>
+      </c>
+      <c r="D95">
+        <v>0.05694216357465123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0002055883941449669</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03652114722441127</v>
+      </c>
+      <c r="C97">
+        <v>-0.2133696186251414</v>
+      </c>
+      <c r="D97">
+        <v>-0.008258468377608446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002821953028586187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03681576528683438</v>
+      </c>
+      <c r="C98">
+        <v>-0.2474751230677704</v>
+      </c>
+      <c r="D98">
+        <v>0.05217739257527097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847780921901657</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9820265485109284</v>
+      </c>
+      <c r="C99">
+        <v>0.117600851227813</v>
+      </c>
+      <c r="D99">
+        <v>-0.02741010763730056</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009238246369781756</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003292930848260088</v>
+      </c>
+      <c r="C101">
+        <v>-0.04963982915967077</v>
+      </c>
+      <c r="D101">
+        <v>0.005764373189364873</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
